--- a/biology/Zoologie/Anhingidae/Anhingidae.xlsx
+++ b/biology/Zoologie/Anhingidae/Anhingidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anhinga
 Les Anhingidae sont une famille d'oiseaux appelés anhingas ou oiseaux-serpent. Cette famille ne comprend que le seul genre Anhinga et 4 espèces.  Le mot « Anhinga » vient de la langue Tupi du Brésil et veut dire « oiseau-diable » ou « oiseau-serpent ».
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des oiseaux aquatiques assez grands (de 81 à 97 cm) avec un cou très long et mince, serpentiforme, et leur long bec a la forme d'un harpon.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitats et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On les trouve dans toutes les régions tropicales et subtropicales, où ils vivent sur les eaux côtières ou de l'intérieur, de préférence stagnantes ou à courant lent.
 </t>
@@ -574,10 +590,12 @@
           <t>Position systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme l'ensemble des familles de l'ancien ordre des Pelecaniformes, les anhingidés ont été intégrés dans l'ordre élargi des Ciconiiformes, à la suite des résultats d'expériences d'hybridation de l'ADN (classification de Sibley &amp; Monroe, 1990) montrant que le clade Ciconiiformes + Pelecaniformes était monophylétique.
-Des études phylogéniques de séquences de gènes mitochondriaux et nucléaires ont montré que ce clade pouvait être découpé en trois ordres monophylétiques (Van Tuinen et al. 2001, Ericson et al. 2006, Hackett et al. 2008). En conséquence, la famille a été déplacée dans un nouvel ordre, les Suliformes, à la suite du congrès 2010 de l'American Ornithologists' Union (AOU)[1]. Le Congrès ornithologique international a immédiatement répercuté cette modification taxinomique dans sa classification de référence à la version 2.6.
+Des études phylogéniques de séquences de gènes mitochondriaux et nucléaires ont montré que ce clade pouvait être découpé en trois ordres monophylétiques (Van Tuinen et al. 2001, Ericson et al. 2006, Hackett et al. 2008). En conséquence, la famille a été déplacée dans un nouvel ordre, les Suliformes, à la suite du congrès 2010 de l'American Ornithologists' Union (AOU). Le Congrès ornithologique international a immédiatement répercuté cette modification taxinomique dans sa classification de référence à la version 2.6.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 5.1, 2015) du Congrès ornithologique international (ordre phylogénique) :
 Anhinga melanogaster – Anhinga roux
